--- a/Resultado/estado_gestion_Paquete_1_Barranquilla.xlsx
+++ b/Resultado/estado_gestion_Paquete_1_Barranquilla.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24110</v>
+        <v>51067</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -473,12 +473,12 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32066</v>
+        <v>58496</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -489,12 +489,12 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36060</v>
+        <v>64403</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -505,12 +505,12 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>46386</v>
+        <v>64519</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -521,12 +521,12 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45906</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>51066</v>
+        <v>64521</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60460</v>
+        <v>72934</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -553,12 +553,12 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>65045</v>
+        <v>74113</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -569,12 +569,12 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67196</v>
+        <v>74122</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -585,12 +585,12 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45906</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>70043</v>
+        <v>74363</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -601,12 +601,12 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73803</v>
+        <v>79502</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -617,12 +617,12 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45903</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>76102</v>
+        <v>79343</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45912</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76929</v>
+        <v>10028</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>77156</v>
+        <v>21119</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -665,12 +665,12 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>78065</v>
+        <v>30002</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -681,12 +681,12 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17017</v>
+        <v>37136</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -697,12 +697,12 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30001</v>
+        <v>57042</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -713,12 +713,12 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>57202</v>
+        <v>63742</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -729,12 +729,12 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>64520</v>
+        <v>73152</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -745,12 +745,12 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>65597</v>
+        <v>73195</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -761,12 +761,12 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73153</v>
+        <v>73313</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -777,12 +777,12 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>74523</v>
+        <v>74524</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -793,12 +793,12 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76629</v>
+        <v>78502</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -809,12 +809,12 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45899</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>77515</v>
+        <v>79597</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -825,12 +825,12 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>77597</v>
+        <v>22875</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45908</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>78501</v>
+        <v>27571</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -857,12 +857,12 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79503</v>
+        <v>45896</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -873,12 +873,12 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>48267</v>
+        <v>59346</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -889,12 +889,12 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>78944</v>
+        <v>59348</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -905,12 +905,12 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16540</v>
+        <v>70219</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -921,12 +921,12 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21118</v>
+        <v>73931</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -937,12 +937,12 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50448</v>
+        <v>74045</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -953,12 +953,12 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>50450</v>
+        <v>77916</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -969,12 +969,12 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45915</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>60049</v>
+        <v>78066</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -985,12 +985,12 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68455</v>
+        <v>78943</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1001,12 +1001,12 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>72240</v>
+        <v>78945</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1017,12 +1017,12 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>74725</v>
+        <v>31547</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1033,12 +1033,12 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>74934</v>
+        <v>34328</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1049,12 +1049,12 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45906</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>75041</v>
+        <v>43145</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1065,12 +1065,12 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>78785</v>
+        <v>63744</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1081,12 +1081,12 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>78778</v>
+        <v>72134</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1097,12 +1097,12 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>79737</v>
+        <v>74724</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -1113,12 +1113,12 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>79739</v>
+        <v>75844</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -1129,12 +1129,12 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>79855</v>
+        <v>79736</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1145,12 +1145,12 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>79930</v>
+        <v>79738</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -1161,12 +1161,12 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18098</v>
+        <v>28800</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1177,12 +1177,12 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>40143</v>
+        <v>57363</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -1193,12 +1193,12 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>42597</v>
+        <v>59821</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -1209,12 +1209,12 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45913</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52360</v>
+        <v>64732</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -1225,12 +1225,12 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45913</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>66129</v>
+        <v>74126</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -1241,12 +1241,12 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45913</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>66379</v>
+        <v>74362</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1257,12 +1257,12 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45906</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67416</v>
+        <v>76248</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -1273,12 +1273,12 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45898</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>69988</v>
+        <v>77335</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -1289,12 +1289,12 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>69990</v>
+        <v>80342</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -1305,12 +1305,12 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>71377</v>
+        <v>28098</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -1321,12 +1321,12 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45899</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>73802</v>
+        <v>36055</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1337,12 +1337,12 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15338</v>
+        <v>40601</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -1353,12 +1353,12 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30881</v>
+        <v>60303</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -1369,12 +1369,12 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45902</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>47193</v>
+        <v>66556</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -1385,12 +1385,12 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>62033</v>
+        <v>68960</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -1401,12 +1401,12 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>62035</v>
+        <v>75562</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -1417,12 +1417,12 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>63254</v>
+        <v>75564</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -1433,12 +1433,12 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45913</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>65595</v>
+        <v>75578</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -1449,12 +1449,12 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>70606</v>
+        <v>77435</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -1465,12 +1465,12 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>70607</v>
+        <v>77436</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -1481,12 +1481,12 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>73247</v>
+        <v>77437</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -1497,12 +1497,12 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75570</v>
+        <v>77517</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -1513,12 +1513,12 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76575</v>
+        <v>21450</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -1529,12 +1529,12 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78412</v>
+        <v>29786</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -1545,12 +1545,12 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27974</v>
+        <v>51515</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -1561,12 +1561,12 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29145</v>
+        <v>71300</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1577,12 +1577,12 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35212</v>
+        <v>71301</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1593,12 +1593,12 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36663</v>
+        <v>75247</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1609,12 +1609,12 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45913</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37719</v>
+        <v>75981</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1625,12 +1625,12 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37720</v>
+        <v>79038</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1641,12 +1641,12 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45913</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>48265</v>
+        <v>79039</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1657,12 +1657,12 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>52876</v>
+        <v>79975</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1673,12 +1673,12 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45899</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>65275</v>
+        <v>13544</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
@@ -1689,12 +1689,12 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>70240</v>
+        <v>40402</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -1705,12 +1705,12 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45912</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>70241</v>
+        <v>43143</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1721,12 +1721,12 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>22877</v>
+        <v>53652</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1737,12 +1737,12 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45912</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>27756</v>
+        <v>64733</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1753,12 +1753,12 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45906</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>43533</v>
+        <v>68343</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1769,12 +1769,12 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>47261</v>
+        <v>69947</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -1785,12 +1785,12 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>47262</v>
+        <v>69546</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1801,12 +1801,12 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>65780</v>
+        <v>69548</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1817,12 +1817,12 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>66128</v>
+        <v>72022</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1833,12 +1833,12 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>75890</v>
+        <v>77888</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1849,12 +1849,12 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>76757</v>
+        <v>79840</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -1865,12 +1865,12 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45913</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>76758</v>
+        <v>79841</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -1881,12 +1881,12 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>76874</v>
+        <v>36060</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1897,12 +1897,12 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>76875</v>
+        <v>46386</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1913,12 +1913,12 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45899</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>77643</v>
+        <v>51066</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -1929,12 +1929,12 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>77793</v>
+        <v>57202</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -1945,12 +1945,12 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>78782</v>
+        <v>64520</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -1961,12 +1961,12 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>78779</v>
+        <v>65597</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -1977,12 +1977,12 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>51067</v>
+        <v>21118</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -1993,12 +1993,12 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>63744</v>
+        <v>24110</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2009,12 +2009,12 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>73931</v>
+        <v>50448</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -2025,12 +2025,12 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>74045</v>
+        <v>50450</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -2041,12 +2041,12 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45906</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>77916</v>
+        <v>60460</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -2057,12 +2057,12 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>78066</v>
+        <v>70043</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -2073,12 +2073,12 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>79502</v>
+        <v>73153</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -2089,12 +2089,12 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>79343</v>
+        <v>74523</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -2105,12 +2105,12 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>10028</v>
+        <v>76629</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -2121,12 +2121,12 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45915</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>27571</v>
+        <v>77515</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -2137,12 +2137,12 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>37136</v>
+        <v>77597</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -2153,12 +2153,12 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>43145</v>
+        <v>78501</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -2169,12 +2169,12 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>58496</v>
+        <v>79503</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -2185,12 +2185,12 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45903</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>64403</v>
+        <v>17017</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -2201,12 +2201,12 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>64519</v>
+        <v>30001</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -2217,12 +2217,12 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>64521</v>
+        <v>32066</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -2233,12 +2233,12 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>73152</v>
+        <v>48267</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -2249,12 +2249,12 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>73195</v>
+        <v>65045</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -2265,12 +2265,12 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>73313</v>
+        <v>67196</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -2281,12 +2281,12 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45904</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>74524</v>
+        <v>73803</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>78502</v>
+        <v>76102</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -2313,12 +2313,12 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>79597</v>
+        <v>76929</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -2329,12 +2329,12 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>30002</v>
+        <v>77156</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -2345,28 +2345,28 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
+        <v>78065</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pendiente Migrar</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
         <v>45896</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Pendiente Migrar</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>45915</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>59346</v>
+        <v>78944</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -2377,12 +2377,12 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>59348</v>
+        <v>16540</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -2393,12 +2393,12 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>63742</v>
+        <v>60049</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -2409,12 +2409,12 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>70219</v>
+        <v>68455</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -2425,12 +2425,12 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>72934</v>
+        <v>72240</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -2441,12 +2441,12 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>74113</v>
+        <v>74725</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -2457,12 +2457,12 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>74122</v>
+        <v>74934</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -2473,12 +2473,12 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45912</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>74363</v>
+        <v>75041</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -2489,12 +2489,12 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>78943</v>
+        <v>78785</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -2505,12 +2505,12 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>78945</v>
+        <v>78778</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -2521,12 +2521,12 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>21119</v>
+        <v>79737</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -2537,12 +2537,12 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22875</v>
+        <v>79739</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -2553,12 +2553,12 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45913</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>31547</v>
+        <v>79855</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -2569,12 +2569,12 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>34328</v>
+        <v>79930</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -2585,12 +2585,12 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>57042</v>
+        <v>18098</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -2601,12 +2601,12 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>72134</v>
+        <v>27756</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -2617,12 +2617,12 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45903</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>74724</v>
+        <v>40143</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -2633,12 +2633,12 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>75844</v>
+        <v>42597</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -2649,12 +2649,12 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45908</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>79736</v>
+        <v>52360</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -2665,12 +2665,12 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45916</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>79738</v>
+        <v>62033</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -2681,12 +2681,12 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>60303</v>
+        <v>62035</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -2697,12 +2697,12 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45913</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>68960</v>
+        <v>63254</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -2713,12 +2713,12 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45904</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>71300</v>
+        <v>65595</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
@@ -2729,12 +2729,12 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>71301</v>
+        <v>70606</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -2745,12 +2745,12 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45906</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>75247</v>
+        <v>70607</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -2761,12 +2761,12 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>75981</v>
+        <v>15338</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -2777,12 +2777,12 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>80342</v>
+        <v>27974</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -2793,12 +2793,12 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>29786</v>
+        <v>29145</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36055</v>
+        <v>43533</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -2825,12 +2825,12 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>40601</v>
+        <v>47261</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>43143</v>
+        <v>47262</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -2857,12 +2857,12 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>53652</v>
+        <v>65275</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -2873,12 +2873,12 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>57363</v>
+        <v>69988</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -2889,12 +2889,12 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45912</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>59821</v>
+        <v>69990</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>64732</v>
+        <v>73247</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -2921,12 +2921,12 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45906</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>75562</v>
+        <v>75570</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -2937,12 +2937,12 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>75564</v>
+        <v>76575</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -2953,12 +2953,12 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>75578</v>
+        <v>78412</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -2969,12 +2969,12 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>77435</v>
+        <v>22877</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -2985,12 +2985,12 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>77436</v>
+        <v>30881</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -3001,12 +3001,12 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>77437</v>
+        <v>35212</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -3017,12 +3017,12 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45899</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>77517</v>
+        <v>36663</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -3033,12 +3033,12 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45901</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>21450</v>
+        <v>37719</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -3049,12 +3049,12 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>28098</v>
+        <v>37720</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>51515</v>
+        <v>48265</v>
       </c>
       <c r="B165" t="n">
         <v>1</v>
@@ -3081,12 +3081,12 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>66556</v>
+        <v>52876</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -3097,12 +3097,12 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>74126</v>
+        <v>66129</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -3113,12 +3113,12 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45896</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>74362</v>
+        <v>66379</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -3129,12 +3129,12 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45915</v>
+        <v>45906</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>76248</v>
+        <v>67416</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -3145,12 +3145,12 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45906</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>77335</v>
+        <v>70240</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -3161,12 +3161,12 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>79038</v>
+        <v>70241</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -3177,12 +3177,12 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>79039</v>
+        <v>71377</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -3193,12 +3193,12 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>79975</v>
+        <v>73802</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -3209,12 +3209,12 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>13544</v>
+        <v>47193</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -3225,12 +3225,12 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>28800</v>
+        <v>65780</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -3241,12 +3241,12 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>40402</v>
+        <v>66128</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -3257,12 +3257,12 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>64733</v>
+        <v>75890</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -3273,12 +3273,12 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>68343</v>
+        <v>76757</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -3289,12 +3289,12 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45903</v>
+        <v>45913</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>69947</v>
+        <v>76758</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -3305,12 +3305,12 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>69546</v>
+        <v>76874</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -3321,12 +3321,12 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>69548</v>
+        <v>76875</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -3337,12 +3337,12 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>72022</v>
+        <v>77643</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -3353,12 +3353,12 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>77888</v>
+        <v>77793</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -3369,12 +3369,12 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>79840</v>
+        <v>78782</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -3385,12 +3385,12 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>79841</v>
+        <v>78779</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
     </row>
   </sheetData>
